--- a/currentbuild/observations-summary.xlsx
+++ b/currentbuild/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Vkp VitalSigns Observation - Blood pressure</t>
   </si>
   <si>
-    <t>null#vital-signs</t>
+    <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
     <t/>
@@ -98,6 +98,24 @@
     <t>null#29463-7, null#27113001</t>
   </si>
   <si>
+    <t>vkp-Observation-Consciousness</t>
+  </si>
+  <si>
+    <t>Vkp Observation - Consciousness</t>
+  </si>
+  <si>
+    <t>null#1104441000000107</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
     <t>vkp-Observation-Heartrate</t>
   </si>
   <si>
@@ -107,6 +125,15 @@
     <t>null#8867-4, null#364075005</t>
   </si>
   <si>
+    <t>vkp-Observation-NEWS2score</t>
+  </si>
+  <si>
+    <t>Vkp VitalSigns Observation - NEWS2 score</t>
+  </si>
+  <si>
+    <t>null#1104051000000101</t>
+  </si>
+  <si>
     <t>vkp-Observation-Oxygensat</t>
   </si>
   <si>
@@ -114,6 +141,15 @@
   </si>
   <si>
     <t>null#2708-6, null#431314004</t>
+  </si>
+  <si>
+    <t>vkp-Observation-Resprate</t>
+  </si>
+  <si>
+    <t>Vkp VitalSigns Observation - Respiratory rate</t>
+  </si>
+  <si>
+    <t>null#9279-1, null#86290005</t>
   </si>
 </sst>
 </file>
@@ -247,7 +283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -471,7 +507,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
@@ -480,13 +516,13 @@
         <v>30</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>
@@ -500,10 +536,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -512,7 +548,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>16</v>
@@ -530,6 +566,111 @@
         <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/currentbuild/observations-summary.xlsx
+++ b/currentbuild/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Vkp VitalSigns Observation - Blood pressure</t>
   </si>
   <si>
-    <t>Observation Category Codes#vital-signs</t>
+    <t>null#vital-signs</t>
   </si>
   <si>
     <t/>
@@ -98,24 +98,6 @@
     <t>null#29463-7, null#27113001</t>
   </si>
   <si>
-    <t>vkp-Observation-Consciousness</t>
-  </si>
-  <si>
-    <t>Vkp Observation - Consciousness</t>
-  </si>
-  <si>
-    <t>null#1104441000000107</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
     <t>vkp-Observation-Heartrate</t>
   </si>
   <si>
@@ -125,15 +107,6 @@
     <t>null#8867-4, null#364075005</t>
   </si>
   <si>
-    <t>vkp-Observation-NEWS2score</t>
-  </si>
-  <si>
-    <t>Vkp VitalSigns Observation - NEWS2 score</t>
-  </si>
-  <si>
-    <t>null#1104051000000101</t>
-  </si>
-  <si>
     <t>vkp-Observation-Oxygensat</t>
   </si>
   <si>
@@ -141,15 +114,6 @@
   </si>
   <si>
     <t>null#2708-6, null#431314004</t>
-  </si>
-  <si>
-    <t>vkp-Observation-Resprate</t>
-  </si>
-  <si>
-    <t>Vkp VitalSigns Observation - Respiratory rate</t>
-  </si>
-  <si>
-    <t>null#9279-1, null#86290005</t>
   </si>
 </sst>
 </file>
@@ -271,10 +235,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -283,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -507,7 +471,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
@@ -516,13 +480,13 @@
         <v>30</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>
@@ -536,10 +500,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -548,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>16</v>
@@ -566,111 +530,6 @@
         <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/currentbuild/observations-summary.xlsx
+++ b/currentbuild/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Vkp VitalSigns Observation - Blood pressure</t>
   </si>
   <si>
-    <t>null#vital-signs</t>
+    <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
     <t/>
@@ -98,6 +98,33 @@
     <t>null#29463-7, null#27113001</t>
   </si>
   <si>
+    <t>vkp-Observation-CFSscore</t>
+  </si>
+  <si>
+    <t>Vkp VitalSigns Observation - CFS score</t>
+  </si>
+  <si>
+    <t>null#763264000</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>vkp-Observation-Consciousness</t>
+  </si>
+  <si>
+    <t>Vkp Observation - Consciousness</t>
+  </si>
+  <si>
+    <t>null#1104441000000107</t>
+  </si>
+  <si>
     <t>vkp-Observation-Heartrate</t>
   </si>
   <si>
@@ -107,6 +134,15 @@
     <t>null#8867-4, null#364075005</t>
   </si>
   <si>
+    <t>vkp-Observation-NEWS2score</t>
+  </si>
+  <si>
+    <t>Vkp VitalSigns Observation - NEWS2 score</t>
+  </si>
+  <si>
+    <t>null#1104051000000101</t>
+  </si>
+  <si>
     <t>vkp-Observation-Oxygensat</t>
   </si>
   <si>
@@ -114,6 +150,15 @@
   </si>
   <si>
     <t>null#2708-6, null#431314004</t>
+  </si>
+  <si>
+    <t>vkp-Observation-Resprate</t>
+  </si>
+  <si>
+    <t>Vkp VitalSigns Observation - Respiratory rate</t>
+  </si>
+  <si>
+    <t>null#9279-1, null#86290005</t>
   </si>
 </sst>
 </file>
@@ -247,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -471,7 +516,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
@@ -480,13 +525,13 @@
         <v>30</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>19</v>
@@ -500,36 +545,176 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="G8" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="H8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="I10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="G11" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="H11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s" s="2">
+      <c r="I11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/currentbuild/observations-summary.xlsx
+++ b/currentbuild/observations-summary.xlsx
@@ -101,7 +101,7 @@
     <t>vkp-Observation-CFSscore</t>
   </si>
   <si>
-    <t>Vkp VitalSigns Observation - CFS score</t>
+    <t>Vkp Observation - CFS score</t>
   </si>
   <si>
     <t>null#763264000</t>

--- a/currentbuild/observations-summary.xlsx
+++ b/currentbuild/observations-summary.xlsx
@@ -62,7 +62,7 @@
     <t>null#85354-9, null#75367002</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ</t>
@@ -107,7 +107,7 @@
     <t>null#763264000</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
